--- a/_work/Statistik.xlsx
+++ b/_work/Statistik.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="83">
   <si>
     <t>Lea</t>
   </si>
@@ -167,6 +167,105 @@
   </si>
   <si>
     <t>21:23:w:Nadine/Magda</t>
+  </si>
+  <si>
+    <t>1:s:Celi</t>
+  </si>
+  <si>
+    <t>2:s:Therry</t>
+  </si>
+  <si>
+    <t>4:s:Nadine</t>
+  </si>
+  <si>
+    <t>6:s:Nina</t>
+  </si>
+  <si>
+    <t>7:s:Lea</t>
+  </si>
+  <si>
+    <t>13:s:Kati</t>
+  </si>
+  <si>
+    <t>20:s:Celi</t>
+  </si>
+  <si>
+    <t>0:s:Celi</t>
+  </si>
+  <si>
+    <t>2:s:Nadine</t>
+  </si>
+  <si>
+    <t>4:s:Nina</t>
+  </si>
+  <si>
+    <t>12:s:Katha</t>
+  </si>
+  <si>
+    <t>14:s:Celi</t>
+  </si>
+  <si>
+    <t>15:s:Therry</t>
+  </si>
+  <si>
+    <t>16:s:Nadine</t>
+  </si>
+  <si>
+    <t>19:s:Nina</t>
+  </si>
+  <si>
+    <t>20:s:Lea</t>
+  </si>
+  <si>
+    <t>5:s:Therry</t>
+  </si>
+  <si>
+    <t>7:s:Nadine</t>
+  </si>
+  <si>
+    <t>10:s:Nina</t>
+  </si>
+  <si>
+    <t>14:s:Lea</t>
+  </si>
+  <si>
+    <t>15:s:Kati</t>
+  </si>
+  <si>
+    <t>16:s:Celi</t>
+  </si>
+  <si>
+    <t>18:s:Nadine</t>
+  </si>
+  <si>
+    <t>20:s:Nina</t>
+  </si>
+  <si>
+    <t>22:s:Lea</t>
+  </si>
+  <si>
+    <t>9:s:Therry</t>
+  </si>
+  <si>
+    <t>13:s:Nadine</t>
+  </si>
+  <si>
+    <t>14:s:Nina</t>
+  </si>
+  <si>
+    <t>15:s:Lea</t>
+  </si>
+  <si>
+    <t>16:s:Kati</t>
+  </si>
+  <si>
+    <t>21:s:Therry</t>
+  </si>
+  <si>
+    <t>24:s:Lea</t>
+  </si>
+  <si>
+    <t>23:s:Magda</t>
   </si>
 </sst>
 </file>
@@ -730,7 +829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AF23" sqref="AF23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -964,16 +1065,16 @@
         <v>8</v>
       </c>
       <c r="AC10" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AD10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AF10" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -1049,16 +1150,16 @@
         <v>12</v>
       </c>
       <c r="AC11" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AD11" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AE11" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="AF11" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -1134,13 +1235,16 @@
         <v>13</v>
       </c>
       <c r="AC12" t="s">
-        <v>36</v>
+        <v>52</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>59</v>
       </c>
       <c r="AE12" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AF12" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -1215,11 +1319,17 @@
       <c r="Z13">
         <v>14</v>
       </c>
+      <c r="AC13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>54</v>
+      </c>
       <c r="AE13" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="AF13" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
@@ -1282,11 +1392,17 @@
       <c r="Z14">
         <v>15</v>
       </c>
+      <c r="AC14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>60</v>
+      </c>
       <c r="AE14" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="AF14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -1349,8 +1465,17 @@
       <c r="Z15">
         <v>19</v>
       </c>
+      <c r="AC15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>40</v>
+      </c>
       <c r="AF15" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -1425,8 +1550,20 @@
       <c r="Z16">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1495,8 +1632,20 @@
       <c r="Z17">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4">
         <v>25</v>
@@ -1559,8 +1708,20 @@
       <c r="Z18">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="U19">
         <v>14</v>
       </c>
@@ -1579,8 +1740,20 @@
       <c r="Z19">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1602,8 +1775,17 @@
       <c r="Z20">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AD20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>43404</v>
       </c>
@@ -1630,8 +1812,17 @@
       <c r="X21">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AD21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>15</v>
@@ -1660,8 +1851,14 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="7" t="s">
         <v>13</v>
@@ -1706,8 +1903,14 @@
       <c r="P23" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4">
         <v>25</v>
@@ -1748,8 +1951,19 @@
         <f t="shared" ref="P24" si="16" xml:space="preserve"> IF(M24+N24=0, 0, IF(N24=0, "MAX", M24/N24))</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AE24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>43399</v>
       </c>
@@ -1771,7 +1985,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="10"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>15</v>
@@ -1801,7 +2015,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="7" t="s">
         <v>13</v>
@@ -1862,7 +2076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1914,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1975,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -2030,7 +2244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>

--- a/_work/Statistik.xlsx
+++ b/_work/Statistik.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="84">
   <si>
     <t>Lea</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>23:s:Magda</t>
+  </si>
+  <si>
+    <t>17:s:Therry</t>
   </si>
 </sst>
 </file>
@@ -830,7 +833,7 @@
   <dimension ref="A1:AG73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF23" sqref="AF23"/>
+      <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1750,7 @@
         <v>64</v>
       </c>
       <c r="AE19" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AF19" t="s">
         <v>80</v>
@@ -1779,7 +1782,7 @@
         <v>65</v>
       </c>
       <c r="AE20" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="AF20" t="s">
         <v>46</v>
@@ -1816,7 +1819,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF21" t="s">
         <v>47</v>
@@ -1852,7 +1855,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="6"/>
       <c r="AE22" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="AF22" t="s">
         <v>82</v>
@@ -1904,7 +1907,7 @@
         <v>22</v>
       </c>
       <c r="AE23" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="AF23" t="s">
         <v>48</v>
@@ -1952,13 +1955,16 @@
         <v>1.5</v>
       </c>
       <c r="AE24" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="AF24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE25" t="s">
+        <v>74</v>
+      </c>
       <c r="AF25" t="s">
         <v>81</v>
       </c>

--- a/_work/Statistik.xlsx
+++ b/_work/Statistik.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="139">
   <si>
     <t>Lea</t>
   </si>
@@ -383,6 +383,57 @@
   </si>
   <si>
     <t>17:12:W:Katha/Yassi</t>
+  </si>
+  <si>
+    <t>L:Katha:Celi:Kati:Nadine:Nina:Lea</t>
+  </si>
+  <si>
+    <t>l:20:22:27:19:15:7</t>
+  </si>
+  <si>
+    <t>L:Celi:Kati:Nadine:Nina:Lea:Steffi</t>
+  </si>
+  <si>
+    <t>l:19:22:7:20:23:15</t>
+  </si>
+  <si>
+    <t>l:23:7:20:22:27:19</t>
+  </si>
+  <si>
+    <t>23:14:w:15/27</t>
+  </si>
+  <si>
+    <t>1:s:Therry</t>
+  </si>
+  <si>
+    <t>9:3:t</t>
+  </si>
+  <si>
+    <t>18:10:t</t>
+  </si>
+  <si>
+    <t>17:12:t</t>
+  </si>
+  <si>
+    <t>9:5:t</t>
+  </si>
+  <si>
+    <t>L:12:16:1:8:5:2</t>
+  </si>
+  <si>
+    <t>l:Katha:Celi:Therry:Nadine:Nina:Lea</t>
+  </si>
+  <si>
+    <t>L:8:16:1:12:5:2</t>
+  </si>
+  <si>
+    <t>L:2:12:16:1:8:5</t>
+  </si>
+  <si>
+    <t>l:Celi:Therry:Nadine:Nina:Lea:Katha</t>
+  </si>
+  <si>
+    <t>L:2:8:16:1:12:5</t>
   </si>
 </sst>
 </file>
@@ -496,28 +547,7 @@
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -986,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG88"/>
+  <dimension ref="A1:AM88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView tabSelected="1" topLeftCell="R7" workbookViewId="0">
+      <selection activeCell="AF32" sqref="AF32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,12 +1035,12 @@
     <col min="29" max="33" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>43414</v>
       </c>
@@ -1032,7 +1062,7 @@
       <c r="O2" s="9"/>
       <c r="P2" s="10"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -1062,7 +1092,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
@@ -1131,8 +1161,17 @@
       <c r="AE4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1184,16 +1223,25 @@
         <v>1</v>
       </c>
       <c r="AC5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>86</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AK5" t="s">
         <v>104</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AL5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1224,11 +1272,11 @@
         <v>4</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:O16" si="2">M6 - N6</f>
+        <f t="shared" ref="O6:O9" si="2">M6 - N6</f>
         <v>1</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" ref="P6:P16" si="3" xml:space="preserve"> IF(M6+N6=0, 0, IF(N6=0, "MAX", M6/N6))</f>
+        <f t="shared" ref="P6:P9" si="3" xml:space="preserve"> IF(M6+N6=0, 0, IF(N6=0, "MAX", M6/N6))</f>
         <v>1.25</v>
       </c>
       <c r="Q6">
@@ -1254,16 +1302,25 @@
         <v>3</v>
       </c>
       <c r="AC6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>85</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AK6" t="s">
         <v>105</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AL6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1318,16 +1375,25 @@
         <v>5</v>
       </c>
       <c r="AC7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>88</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AK7" t="s">
         <v>106</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AL7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1388,16 +1454,25 @@
         <v>6</v>
       </c>
       <c r="AC8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>89</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AK8" t="s">
         <v>107</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AL8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1458,16 +1533,25 @@
         <v>7</v>
       </c>
       <c r="AC9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>90</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AK9" t="s">
         <v>108</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AL9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1496,16 +1580,22 @@
         <v>8</v>
       </c>
       <c r="AC10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>99</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AK10" t="s">
         <v>110</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AL10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1547,16 +1637,19 @@
         <v>9</v>
       </c>
       <c r="AC11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>91</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AK11" t="s">
         <v>109</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AL11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1617,16 +1710,19 @@
         <v>11</v>
       </c>
       <c r="AC12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>92</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AK12" t="s">
         <v>111</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AL12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1668,16 +1764,19 @@
         <v>12</v>
       </c>
       <c r="AC13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>93</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AK13" t="s">
         <v>112</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AL13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1731,14 +1830,14 @@
       <c r="X14">
         <v>13</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AJ14" t="s">
         <v>102</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AL14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1785,14 +1884,14 @@
       <c r="X15">
         <v>16</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AJ15" t="s">
         <v>94</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AL15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1814,14 +1913,14 @@
       <c r="X16">
         <v>17</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AJ16" t="s">
         <v>95</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AL16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4">
         <v>25</v>
@@ -1871,43 +1970,43 @@
       <c r="W17">
         <v>25</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AJ17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="S18">
         <v>25</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AJ18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AJ19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AJ20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AJ21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>43408</v>
       </c>
@@ -1928,11 +2027,11 @@
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="10"/>
-      <c r="AC22" t="s">
+      <c r="AJ22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>15</v>
@@ -1962,7 +2061,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="7" t="s">
         <v>13</v>
@@ -2038,7 +2137,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2099,19 +2198,31 @@
         <v>8</v>
       </c>
       <c r="AC25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>50</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AK25" t="s">
         <v>57</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AL25" t="s">
         <v>50</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AM25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -2184,19 +2295,31 @@
         <v>12</v>
       </c>
       <c r="AC26" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>51</v>
       </c>
-      <c r="AD26" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE26" t="s">
+      <c r="AK26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL26" t="s">
         <v>66</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AM26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -2269,19 +2392,31 @@
         <v>13</v>
       </c>
       <c r="AC27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>52</v>
       </c>
-      <c r="AD27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE27" t="s">
+      <c r="AK27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL27" t="s">
         <v>67</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AM27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2354,19 +2489,31 @@
         <v>14</v>
       </c>
       <c r="AC28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ28" t="s">
         <v>53</v>
       </c>
-      <c r="AD28" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE28" t="s">
+      <c r="AK28" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL28" t="s">
         <v>68</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AM28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -2427,19 +2574,28 @@
         <v>15</v>
       </c>
       <c r="AC29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ29" t="s">
         <v>54</v>
       </c>
-      <c r="AD29" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE29" t="s">
+      <c r="AK29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL29" t="s">
         <v>69</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AM29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -2499,20 +2655,26 @@
       <c r="Z30">
         <v>19</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AE30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>34</v>
       </c>
-      <c r="AD30" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE30" t="s">
+      <c r="AK30" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL30" t="s">
         <v>40</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AM30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -2584,20 +2746,26 @@
       <c r="Z31">
         <v>20</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AE31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ31" t="s">
         <v>35</v>
       </c>
-      <c r="AD31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE31" t="s">
+      <c r="AK31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL31" t="s">
         <v>70</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AM31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -2666,20 +2834,23 @@
       <c r="Z32">
         <v>21</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AF32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ32" t="s">
         <v>55</v>
       </c>
-      <c r="AD32" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="AK32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL32" t="s">
         <v>39</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AM32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4">
         <v>25</v>
@@ -2742,20 +2913,20 @@
       <c r="Z33">
         <v>22</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AJ33" t="s">
         <v>36</v>
       </c>
-      <c r="AD33" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE33" t="s">
+      <c r="AK33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL33" t="s">
         <v>71</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AM33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="U34">
         <v>14</v>
       </c>
@@ -2774,20 +2945,20 @@
       <c r="Z34">
         <v>23</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AJ34" t="s">
         <v>56</v>
       </c>
-      <c r="AD34" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE34" t="s">
+      <c r="AK34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL34" t="s">
         <v>83</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AM34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -2809,17 +2980,17 @@
       <c r="Z35">
         <v>25</v>
       </c>
-      <c r="AD35" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE35" t="s">
+      <c r="AK35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL35" t="s">
         <v>72</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AM35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>43404</v>
       </c>
@@ -2846,17 +3017,17 @@
       <c r="X36">
         <v>22</v>
       </c>
-      <c r="AD36" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE36" t="s">
+      <c r="AK36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL36" t="s">
         <v>41</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AM36" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>15</v>
@@ -2885,14 +3056,17 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="6"/>
-      <c r="AE37" t="s">
+      <c r="AK37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL37" t="s">
         <v>42</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AM37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="7" t="s">
         <v>13</v>
@@ -2937,14 +3111,14 @@
       <c r="P38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AL38" t="s">
         <v>73</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AM38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4">
         <v>25</v>
@@ -2985,22 +3159,22 @@
         <f t="shared" ref="P39" si="25" xml:space="preserve"> IF(M39+N39=0, 0, IF(N39=0, "MAX", M39/N39))</f>
         <v>1.5</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AL39" t="s">
         <v>43</v>
       </c>
-      <c r="AF39" t="s">
+      <c r="AM39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AE40" t="s">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL40" t="s">
         <v>74</v>
       </c>
-      <c r="AF40" t="s">
+      <c r="AM40" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>43399</v>
       </c>
@@ -3022,7 +3196,7 @@
       <c r="O41" s="9"/>
       <c r="P41" s="10"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>15</v>
@@ -3052,7 +3226,7 @@
       <c r="O42" s="4"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="7" t="s">
         <v>13</v>
@@ -3113,7 +3287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -3165,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -3226,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -3281,7 +3455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -3342,7 +3516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>

--- a/_work/Statistik.xlsx
+++ b/_work/Statistik.xlsx
@@ -1398,7 +1398,7 @@
   <dimension ref="A1:AM142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
@@ -1952,14 +1952,15 @@
       </c>
       <c r="O9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>MAX</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <f>IF(P9 &lt; 1, 3, IF(P9 &gt;= P$17, 1, 2))</f>
+        <v>1</v>
       </c>
       <c r="S9">
         <v>12</v>
